--- a/celery_app/country_sequence.xlsx
+++ b/celery_app/country_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Country</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
   </si>
   <si>
     <t>Yemen</t>
@@ -576,10 +573,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -599,7 +596,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,31 +669,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +718,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,82 +738,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -751,19 +748,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,163 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,11 +957,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,11 +1004,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,17 +1020,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,26 +1044,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,148 +1059,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,54 +1214,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1531,942 +1528,937 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A185"/>
+  <dimension ref="A1:A184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.1071428571429" customWidth="1"/>
+    <col min="1" max="1" width="24.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.35" spans="1:1">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.75" spans="1:1">
+    <row r="2" ht="15" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="17.75" spans="1:1">
+    <row r="3" ht="15" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="17.75" spans="1:1">
+    <row r="4" ht="15" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="17.75" spans="1:1">
+    <row r="5" ht="15" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="17.75" spans="1:1">
+    <row r="6" ht="15" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="17.75" spans="1:1">
+    <row r="7" ht="15" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="17.75" spans="1:1">
+    <row r="8" ht="15" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="1:1">
+    <row r="9" ht="15" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="17.75" spans="1:1">
+    <row r="10" ht="15" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="17.75" spans="1:1">
+    <row r="11" ht="15" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="17.75" spans="1:1">
+    <row r="12" ht="15" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="17.75" spans="1:1">
+    <row r="13" ht="15" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="17.75" spans="1:1">
+    <row r="14" ht="15" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="17.75" spans="1:1">
+    <row r="15" ht="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="17.75" spans="1:1">
+    <row r="16" ht="15" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="17.75" spans="1:1">
+    <row r="17" ht="15" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="17.75" spans="1:1">
+    <row r="18" ht="15" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="17.75" spans="1:1">
+    <row r="19" ht="15" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="17.75" spans="1:1">
+    <row r="20" ht="15" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="17.75" spans="1:1">
+    <row r="21" ht="15" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="17.75" spans="1:1">
+    <row r="22" ht="15" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="17.75" spans="1:1">
+    <row r="23" ht="27.75" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="17.75" spans="1:1">
+    <row r="24" ht="15" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="17.75" spans="1:1">
+    <row r="25" ht="15" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="17.75" spans="1:1">
+    <row r="26" ht="15" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="17.75" spans="1:1">
+    <row r="27" ht="15" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="17.75" spans="1:1">
+    <row r="28" ht="15" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="17.75" spans="1:1">
+    <row r="29" ht="15" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="17.75" spans="1:1">
+    <row r="30" ht="15" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="17.75" spans="1:1">
+    <row r="31" ht="15" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="17.75" spans="1:1">
+    <row r="32" ht="15" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="17.75" spans="1:1">
+    <row r="33" ht="15" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="17.75" spans="1:1">
+    <row r="34" ht="15" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="17.75" spans="1:1">
+    <row r="35" ht="27.75" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="17.75" spans="1:1">
+    <row r="36" ht="15" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="17.75" spans="1:1">
+    <row r="37" ht="15" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="17.75" spans="1:1">
+    <row r="38" ht="15" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="17.75" spans="1:1">
+    <row r="39" ht="15" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="17.75" spans="1:1">
+    <row r="40" ht="15" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="17.75" spans="1:1">
+    <row r="41" ht="15" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="17.75" spans="1:1">
+    <row r="42" ht="15" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="17.75" spans="1:1">
+    <row r="43" ht="15" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="17.75" spans="1:1">
+    <row r="44" ht="15" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="17.75" spans="1:1">
+    <row r="45" ht="15" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="17.75" spans="1:1">
+    <row r="46" ht="15" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="17.75" spans="1:1">
+    <row r="47" ht="15" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="17.75" spans="1:1">
+    <row r="48" ht="15" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="17.75" spans="1:1">
+    <row r="49" ht="15" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="17.75" spans="1:1">
+    <row r="50" ht="15" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="17.75" spans="1:1">
+    <row r="51" ht="15" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="17.75" spans="1:1">
+    <row r="52" ht="15" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="17.75" spans="1:1">
+    <row r="53" ht="15" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="17.75" spans="1:1">
+    <row r="54" ht="15" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="17.75" spans="1:1">
+    <row r="55" ht="15" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="17.75" spans="1:1">
+    <row r="56" ht="15" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="17.75" spans="1:1">
+    <row r="57" ht="15" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="17.75" spans="1:1">
+    <row r="58" ht="15" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="17.75" spans="1:1">
+    <row r="59" ht="15" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="17.75" spans="1:1">
+    <row r="60" ht="15" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="17.75" spans="1:1">
+    <row r="61" ht="15" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="17.75" spans="1:1">
+    <row r="62" ht="15" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="17.75" spans="1:1">
+    <row r="63" ht="15" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="17.75" spans="1:1">
+    <row r="64" ht="15" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="17.75" spans="1:1">
+    <row r="65" ht="15" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="17.75" spans="1:1">
+    <row r="66" ht="15" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="17.75" spans="1:1">
+    <row r="67" ht="15" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="17.75" spans="1:1">
+    <row r="68" ht="15" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="17.75" spans="1:1">
+    <row r="69" ht="15" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="17.75" spans="1:1">
+    <row r="70" ht="15" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="17.75" spans="1:1">
+    <row r="71" ht="15" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="17.75" spans="1:1">
+    <row r="72" ht="15" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="17.75" spans="1:1">
+    <row r="73" ht="15" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="17.75" spans="1:1">
+    <row r="74" ht="15" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="17.75" spans="1:1">
+    <row r="75" ht="15" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="17.75" spans="1:1">
+    <row r="76" ht="15" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="17.75" spans="1:1">
+    <row r="77" ht="15" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="17.75" spans="1:1">
+    <row r="78" ht="15" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="17.75" spans="1:1">
+    <row r="79" ht="15" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="17.75" spans="1:1">
+    <row r="80" ht="15" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" ht="17.75" spans="1:1">
+    <row r="81" ht="15" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" ht="17.75" spans="1:1">
+    <row r="82" ht="15" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" ht="17.75" spans="1:1">
+    <row r="83" ht="15" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" ht="17.75" spans="1:1">
+    <row r="84" ht="15" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" ht="17.75" spans="1:1">
+    <row r="85" ht="15" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" ht="17.75" spans="1:1">
+    <row r="86" ht="15" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" ht="17.75" spans="1:1">
+    <row r="87" ht="15" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" ht="17.75" spans="1:1">
+    <row r="88" ht="15" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" ht="17.75" spans="1:1">
+    <row r="89" ht="15" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" ht="17.75" spans="1:1">
+    <row r="90" ht="15" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" ht="17.75" spans="1:1">
+    <row r="91" ht="15" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="17.75" spans="1:1">
+    <row r="92" ht="15" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="17.75" spans="1:1">
+    <row r="93" ht="15" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" ht="17.75" spans="1:1">
+    <row r="94" ht="15" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="17.75" spans="1:1">
+    <row r="95" ht="15" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" ht="17.75" spans="1:1">
+    <row r="96" ht="15" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="17.75" spans="1:1">
+    <row r="97" ht="15" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" ht="17.75" spans="1:1">
+    <row r="98" ht="15" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" ht="17.75" spans="1:1">
+    <row r="99" ht="15" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" ht="17.75" spans="1:1">
+    <row r="100" ht="15" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" ht="17.75" spans="1:1">
+    <row r="101" ht="15" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="17.75" spans="1:1">
+    <row r="102" ht="15" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="17.75" spans="1:1">
+    <row r="103" ht="15" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="17.75" spans="1:1">
+    <row r="104" ht="15" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="17.75" spans="1:1">
+    <row r="105" ht="15" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" ht="17.75" spans="1:1">
+    <row r="106" ht="15" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" ht="17.75" spans="1:1">
+    <row r="107" ht="15" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" ht="17.75" spans="1:1">
+    <row r="108" ht="15" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" ht="17.75" spans="1:1">
+    <row r="109" ht="15" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" ht="17.75" spans="1:1">
+    <row r="110" ht="15" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="17.75" spans="1:1">
+    <row r="111" ht="15" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" ht="17.75" spans="1:1">
+    <row r="112" ht="15" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="17.75" spans="1:1">
+    <row r="113" ht="15" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" ht="17.75" spans="1:1">
+    <row r="114" ht="15" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" ht="17.75" spans="1:1">
+    <row r="115" ht="15" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" ht="17.75" spans="1:1">
+    <row r="116" ht="15" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" ht="17.75" spans="1:1">
+    <row r="117" ht="15" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" ht="17.75" spans="1:1">
+    <row r="118" ht="15" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" ht="17.75" spans="1:1">
+    <row r="119" ht="15" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" ht="17.75" spans="1:1">
+    <row r="120" ht="15" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" ht="17.75" spans="1:1">
+    <row r="121" ht="15" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" ht="17.75" spans="1:1">
+    <row r="122" ht="15" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" ht="17.75" spans="1:1">
+    <row r="123" ht="15" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" ht="17.75" spans="1:1">
+    <row r="124" ht="15" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" ht="17.75" spans="1:1">
+    <row r="125" ht="15" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" ht="17.75" spans="1:1">
+    <row r="126" ht="15" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" ht="17.75" spans="1:1">
+    <row r="127" ht="15" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" ht="17.75" spans="1:1">
+    <row r="128" ht="15" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" ht="17.75" spans="1:1">
+    <row r="129" ht="15" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" ht="17.75" spans="1:1">
+    <row r="130" ht="15" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" ht="17.75" spans="1:1">
+    <row r="131" ht="15" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" ht="17.75" spans="1:1">
+    <row r="132" ht="15" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="17.75" spans="1:1">
+    <row r="133" ht="15" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" ht="17.75" spans="1:1">
+    <row r="134" ht="15" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" ht="17.75" spans="1:1">
+    <row r="135" ht="15" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="17.75" spans="1:1">
+    <row r="136" ht="15" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" ht="17.75" spans="1:1">
+    <row r="137" ht="15" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" ht="17.75" spans="1:1">
+    <row r="138" ht="15" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" ht="17.75" spans="1:1">
+    <row r="139" ht="27.75" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" ht="17.75" spans="1:1">
+    <row r="140" ht="15" spans="1:1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" ht="17.75" spans="1:1">
+    <row r="141" ht="27.75" spans="1:1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="17.75" spans="1:1">
+    <row r="142" ht="15" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" ht="17.75" spans="1:1">
+    <row r="143" ht="27.75" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" ht="17.75" spans="1:1">
+    <row r="144" ht="15" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" ht="17.75" spans="1:1">
+    <row r="145" ht="15" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" ht="17.75" spans="1:1">
+    <row r="146" ht="15" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" ht="17.75" spans="1:1">
+    <row r="147" ht="15" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" ht="17.75" spans="1:1">
+    <row r="148" ht="15" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" ht="17.75" spans="1:1">
+    <row r="149" ht="15" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" ht="17.75" spans="1:1">
+    <row r="150" ht="15" spans="1:1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" ht="17.75" spans="1:1">
+    <row r="151" ht="15" spans="1:1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" ht="17.75" spans="1:1">
+    <row r="152" ht="15" spans="1:1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" ht="17.75" spans="1:1">
+    <row r="153" ht="15" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="17.75" spans="1:1">
+    <row r="154" ht="15" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" ht="17.75" spans="1:1">
+    <row r="155" ht="15" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" ht="17.75" spans="1:1">
+    <row r="156" ht="15" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" ht="17.75" spans="1:1">
+    <row r="157" ht="15" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="17.75" spans="1:1">
+    <row r="158" ht="15" spans="1:1">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="17.75" spans="1:1">
+    <row r="159" ht="15" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" ht="17.75" spans="1:1">
+    <row r="160" ht="15" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="17.75" spans="1:1">
+    <row r="161" ht="15" spans="1:1">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" ht="17.75" spans="1:1">
+    <row r="162" ht="15" spans="1:1">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" ht="17.75" spans="1:1">
+    <row r="163" ht="15" spans="1:1">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" ht="17.75" spans="1:1">
+    <row r="164" ht="15" spans="1:1">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" ht="17.75" spans="1:1">
+    <row r="165" ht="15" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" ht="17.75" spans="1:1">
+    <row r="166" ht="15" spans="1:1">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" ht="17.75" spans="1:1">
+    <row r="167" ht="15" spans="1:1">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" ht="17.75" spans="1:1">
+    <row r="168" ht="15" spans="1:1">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" ht="17.75" spans="1:1">
+    <row r="169" ht="15" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" ht="17.75" spans="1:1">
+    <row r="170" ht="15" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" ht="17.75" spans="1:1">
+    <row r="171" ht="15" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" ht="17.75" spans="1:1">
+    <row r="172" ht="15" spans="1:1">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" ht="17.75" spans="1:1">
+    <row r="173" ht="15" spans="1:1">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" ht="17.75" spans="1:1">
+    <row r="174" ht="15" spans="1:1">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" ht="17.75" spans="1:1">
+    <row r="175" ht="15" spans="1:1">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" ht="17.75" spans="1:1">
+    <row r="176" ht="15" spans="1:1">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" ht="17.75" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" ht="17.75" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" ht="17.75" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" ht="17.75" spans="1:1">
+    <row r="180" ht="15" spans="1:1">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" ht="17.75" spans="1:1">
+    <row r="181" ht="15" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" ht="17.75" spans="1:1">
+    <row r="182" ht="15" spans="1:1">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" ht="17.75" spans="1:1">
+    <row r="183" ht="15" spans="1:1">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" ht="17.75" spans="1:1">
+    <row r="184" ht="15" spans="1:1">
       <c r="A184" s="1" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="185" ht="17.75" spans="1:1">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
